--- a/natmiOut/OldD2/LR-pairs_lrc2p/Penk-Oprm1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Penk-Oprm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Penk</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,371 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>20.908407</v>
+      </c>
+      <c r="H2">
+        <v>62.725221</v>
+      </c>
+      <c r="I2">
+        <v>0.9843255515709016</v>
+      </c>
+      <c r="J2">
+        <v>0.9867193626172466</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M2">
+        <v>0.05215766666666666</v>
+      </c>
+      <c r="N2">
+        <v>0.156473</v>
+      </c>
+      <c r="O2">
+        <v>0.1010355835763341</v>
+      </c>
+      <c r="P2">
+        <v>0.1010355835763341</v>
+      </c>
+      <c r="Q2">
+        <v>1.090533722837</v>
+      </c>
+      <c r="R2">
+        <v>9.814803505533</v>
+      </c>
+      <c r="S2">
+        <v>0.09945190653206297</v>
+      </c>
+      <c r="T2">
+        <v>0.09969376662810191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>20.908407</v>
+      </c>
+      <c r="H3">
+        <v>62.725221</v>
+      </c>
+      <c r="I3">
+        <v>0.9843255515709016</v>
+      </c>
+      <c r="J3">
+        <v>0.9867193626172466</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.464073</v>
+      </c>
+      <c r="N3">
+        <v>1.392219</v>
+      </c>
+      <c r="O3">
+        <v>0.8989644164236659</v>
+      </c>
+      <c r="P3">
+        <v>0.8989644164236659</v>
+      </c>
+      <c r="Q3">
+        <v>9.703027161711001</v>
+      </c>
+      <c r="R3">
+        <v>87.327244455399</v>
+      </c>
+      <c r="S3">
+        <v>0.8848736450388386</v>
+      </c>
+      <c r="T3">
+        <v>0.8870255959891447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.17835</v>
+      </c>
+      <c r="H4">
+        <v>0.53505</v>
+      </c>
+      <c r="I4">
+        <v>0.00839635760498972</v>
+      </c>
+      <c r="J4">
+        <v>0.008416776960711829</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.05215766666666666</v>
+      </c>
+      <c r="N4">
+        <v>0.156473</v>
+      </c>
+      <c r="O4">
+        <v>0.1010355835763341</v>
+      </c>
+      <c r="P4">
+        <v>0.1010355835763341</v>
+      </c>
+      <c r="Q4">
+        <v>0.009302319850000001</v>
+      </c>
+      <c r="R4">
+        <v>0.08372087865000001</v>
+      </c>
+      <c r="S4">
+        <v>0.0008483308905357271</v>
+      </c>
+      <c r="T4">
+        <v>0.0008503939720573631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.17835</v>
+      </c>
+      <c r="H5">
+        <v>0.53505</v>
+      </c>
+      <c r="I5">
+        <v>0.00839635760498972</v>
+      </c>
+      <c r="J5">
+        <v>0.008416776960711829</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.464073</v>
+      </c>
+      <c r="N5">
+        <v>1.392219</v>
+      </c>
+      <c r="O5">
+        <v>0.8989644164236659</v>
+      </c>
+      <c r="P5">
+        <v>0.8989644164236659</v>
+      </c>
+      <c r="Q5">
+        <v>0.08276741955000001</v>
+      </c>
+      <c r="R5">
+        <v>0.7449067759500001</v>
+      </c>
+      <c r="S5">
+        <v>0.007548026714453993</v>
+      </c>
+      <c r="T5">
+        <v>0.007566382988654465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>19.4542752252072</v>
-      </c>
-      <c r="H2">
-        <v>19.4542752252072</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0.420695631019507</v>
-      </c>
-      <c r="N2">
-        <v>0.420695631019507</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>8.184328591895706</v>
-      </c>
-      <c r="R2">
-        <v>8.184328591895706</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.1545965</v>
+      </c>
+      <c r="H6">
+        <v>0.309193</v>
+      </c>
+      <c r="I6">
+        <v>0.007278090824108737</v>
+      </c>
+      <c r="J6">
+        <v>0.004863860422041627</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.05215766666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.156473</v>
+      </c>
+      <c r="O6">
+        <v>0.1010355835763341</v>
+      </c>
+      <c r="P6">
+        <v>0.1010355835763341</v>
+      </c>
+      <c r="Q6">
+        <v>0.008063392714833332</v>
+      </c>
+      <c r="R6">
+        <v>0.048380356289</v>
+      </c>
+      <c r="S6">
+        <v>0.0007353461537353885</v>
+      </c>
+      <c r="T6">
+        <v>0.0004914229761748103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.1545965</v>
+      </c>
+      <c r="H7">
+        <v>0.309193</v>
+      </c>
+      <c r="I7">
+        <v>0.007278090824108737</v>
+      </c>
+      <c r="J7">
+        <v>0.004863860422041627</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.464073</v>
+      </c>
+      <c r="N7">
+        <v>1.392219</v>
+      </c>
+      <c r="O7">
+        <v>0.8989644164236659</v>
+      </c>
+      <c r="P7">
+        <v>0.8989644164236659</v>
+      </c>
+      <c r="Q7">
+        <v>0.0717440615445</v>
+      </c>
+      <c r="R7">
+        <v>0.430464369267</v>
+      </c>
+      <c r="S7">
+        <v>0.006542744670373348</v>
+      </c>
+      <c r="T7">
+        <v>0.004372437445866816</v>
       </c>
     </row>
   </sheetData>
